--- a/final_data_pipeline/output/311411longform.xlsx
+++ b/final_data_pipeline/output/311411longform.xlsx
@@ -906,7 +906,7 @@
         <v>115</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -992,7 +992,7 @@
         <v>115</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -1075,7 +1075,7 @@
         <v>115</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB4">
         <v>8000</v>
@@ -1158,7 +1158,7 @@
         <v>115</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB5">
         <v>8000</v>
@@ -4926,7 +4926,7 @@
         <v>115</v>
       </c>
       <c r="AA50">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB50">
         <v>8000</v>
@@ -5012,7 +5012,7 @@
         <v>115</v>
       </c>
       <c r="AA51">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB51">
         <v>8000</v>
@@ -5095,7 +5095,7 @@
         <v>115</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB52">
         <v>8000</v>
@@ -5178,7 +5178,7 @@
         <v>115</v>
       </c>
       <c r="AA53">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB53">
         <v>8000</v>
@@ -5264,7 +5264,7 @@
         <v>115</v>
       </c>
       <c r="AA54">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB54">
         <v>8000</v>
@@ -5347,7 +5347,7 @@
         <v>115</v>
       </c>
       <c r="AA55">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB55">
         <v>8000</v>
@@ -5430,7 +5430,7 @@
         <v>115</v>
       </c>
       <c r="AA56">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB56">
         <v>8000</v>
@@ -5513,7 +5513,7 @@
         <v>115</v>
       </c>
       <c r="AA57">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB57">
         <v>8000</v>
@@ -5599,7 +5599,7 @@
         <v>115</v>
       </c>
       <c r="AA58">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB58">
         <v>8000</v>
@@ -5688,7 +5688,7 @@
         <v>115</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB59">
         <v>8000</v>
@@ -5780,7 +5780,7 @@
         <v>115</v>
       </c>
       <c r="AA60">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB60">
         <v>8000</v>
@@ -5872,7 +5872,7 @@
         <v>115</v>
       </c>
       <c r="AA61">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB61">
         <v>8000</v>
@@ -5964,7 +5964,7 @@
         <v>115</v>
       </c>
       <c r="AA62">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB62">
         <v>8000</v>
@@ -6056,7 +6056,7 @@
         <v>115</v>
       </c>
       <c r="AA63">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB63">
         <v>8000</v>
@@ -6148,7 +6148,7 @@
         <v>115</v>
       </c>
       <c r="AA64">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB64">
         <v>8000</v>
@@ -6240,7 +6240,7 @@
         <v>115</v>
       </c>
       <c r="AA65">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB65">
         <v>8000</v>
@@ -6332,7 +6332,7 @@
         <v>115</v>
       </c>
       <c r="AA66">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB66">
         <v>8000</v>
@@ -6421,7 +6421,7 @@
         <v>115</v>
       </c>
       <c r="AA67">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB67">
         <v>8000</v>
@@ -6510,7 +6510,7 @@
         <v>115</v>
       </c>
       <c r="AA68">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB68">
         <v>8000</v>
@@ -6599,7 +6599,7 @@
         <v>115</v>
       </c>
       <c r="AA69">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB69">
         <v>8000</v>
@@ -6688,7 +6688,7 @@
         <v>115</v>
       </c>
       <c r="AA70">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB70">
         <v>8000</v>
@@ -6771,7 +6771,7 @@
         <v>115</v>
       </c>
       <c r="AA71">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB71">
         <v>8000</v>
@@ -6860,7 +6860,7 @@
         <v>115</v>
       </c>
       <c r="AA72">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB72">
         <v>8000</v>
@@ -6949,7 +6949,7 @@
         <v>115</v>
       </c>
       <c r="AA73">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB73">
         <v>8000</v>
@@ -7038,7 +7038,7 @@
         <v>115</v>
       </c>
       <c r="AA74">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB74">
         <v>8000</v>
@@ -7121,7 +7121,7 @@
         <v>115</v>
       </c>
       <c r="AA75">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB75">
         <v>8000</v>
@@ -7210,7 +7210,7 @@
         <v>115</v>
       </c>
       <c r="AA76">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB76">
         <v>8000</v>
@@ -7299,7 +7299,7 @@
         <v>115</v>
       </c>
       <c r="AA77">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB77">
         <v>8000</v>
@@ -7388,7 +7388,7 @@
         <v>115</v>
       </c>
       <c r="AA78">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB78">
         <v>8000</v>
@@ -7477,7 +7477,7 @@
         <v>115</v>
       </c>
       <c r="AA79">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB79">
         <v>8000</v>
@@ -7566,7 +7566,7 @@
         <v>115</v>
       </c>
       <c r="AA80">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB80">
         <v>8000</v>
@@ -7655,7 +7655,7 @@
         <v>115</v>
       </c>
       <c r="AA81">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB81">
         <v>8000</v>
@@ -7744,7 +7744,7 @@
         <v>115</v>
       </c>
       <c r="AA82">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB82">
         <v>8000</v>
@@ -7833,7 +7833,7 @@
         <v>115</v>
       </c>
       <c r="AA83">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB83">
         <v>8000</v>
@@ -7922,7 +7922,7 @@
         <v>115</v>
       </c>
       <c r="AA84">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB84">
         <v>8000</v>
@@ -8011,7 +8011,7 @@
         <v>115</v>
       </c>
       <c r="AA85">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB85">
         <v>8000</v>
@@ -8100,7 +8100,7 @@
         <v>115</v>
       </c>
       <c r="AA86">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB86">
         <v>8000</v>
@@ -8189,7 +8189,7 @@
         <v>115</v>
       </c>
       <c r="AA87">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB87">
         <v>8000</v>
@@ -8272,7 +8272,7 @@
         <v>115</v>
       </c>
       <c r="AA88">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB88">
         <v>8000</v>
@@ -8361,7 +8361,7 @@
         <v>115</v>
       </c>
       <c r="AA89">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB89">
         <v>8000</v>
@@ -8444,7 +8444,7 @@
         <v>115</v>
       </c>
       <c r="AA90">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB90">
         <v>8000</v>
@@ -8533,7 +8533,7 @@
         <v>115</v>
       </c>
       <c r="AA91">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB91">
         <v>8000</v>
@@ -8616,7 +8616,7 @@
         <v>115</v>
       </c>
       <c r="AA92">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB92">
         <v>8000</v>
@@ -8699,7 +8699,7 @@
         <v>115</v>
       </c>
       <c r="AA93">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB93">
         <v>8000</v>
@@ -8782,7 +8782,7 @@
         <v>115</v>
       </c>
       <c r="AA94">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB94">
         <v>8000</v>
@@ -8865,7 +8865,7 @@
         <v>115</v>
       </c>
       <c r="AA95">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB95">
         <v>8000</v>
@@ -8948,7 +8948,7 @@
         <v>115</v>
       </c>
       <c r="AA96">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB96">
         <v>8000</v>
@@ -9034,7 +9034,7 @@
         <v>115</v>
       </c>
       <c r="AA97">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB97">
         <v>8000</v>
@@ -9117,7 +9117,7 @@
         <v>115</v>
       </c>
       <c r="AA98">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB98">
         <v>8000</v>
@@ -9203,7 +9203,7 @@
         <v>115</v>
       </c>
       <c r="AA99">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB99">
         <v>8000</v>
@@ -9298,7 +9298,7 @@
         <v>115</v>
       </c>
       <c r="AA100">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB100">
         <v>8000</v>
@@ -9381,7 +9381,7 @@
         <v>115</v>
       </c>
       <c r="AA101">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB101">
         <v>8000</v>
@@ -9470,7 +9470,7 @@
         <v>115</v>
       </c>
       <c r="AA102">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB102">
         <v>8000</v>
@@ -9559,7 +9559,7 @@
         <v>115</v>
       </c>
       <c r="AA103">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB103">
         <v>8000</v>
@@ -9642,7 +9642,7 @@
         <v>115</v>
       </c>
       <c r="AA104">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB104">
         <v>8000</v>
@@ -9734,7 +9734,7 @@
         <v>115</v>
       </c>
       <c r="AA105">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB105">
         <v>8000</v>
@@ -9820,7 +9820,7 @@
         <v>115</v>
       </c>
       <c r="AA106">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="AB106">
         <v>8000</v>
@@ -10938,7 +10938,7 @@
         <v>115</v>
       </c>
       <c r="AA119">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB119">
         <v>8000</v>
@@ -11021,7 +11021,7 @@
         <v>115</v>
       </c>
       <c r="AA120">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB120">
         <v>8000</v>
@@ -11107,7 +11107,7 @@
         <v>115</v>
       </c>
       <c r="AA121">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB121">
         <v>8000</v>
@@ -11190,7 +11190,7 @@
         <v>115</v>
       </c>
       <c r="AA122">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB122">
         <v>8000</v>
@@ -11282,7 +11282,7 @@
         <v>115</v>
       </c>
       <c r="AA123">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB123">
         <v>8000</v>
@@ -11365,7 +11365,7 @@
         <v>115</v>
       </c>
       <c r="AA124">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB124">
         <v>8000</v>
@@ -11454,7 +11454,7 @@
         <v>115</v>
       </c>
       <c r="AA125">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB125">
         <v>8000</v>
@@ -11540,7 +11540,7 @@
         <v>115</v>
       </c>
       <c r="AA126">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB126">
         <v>8000</v>
@@ -11623,7 +11623,7 @@
         <v>115</v>
       </c>
       <c r="AA127">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB127">
         <v>8000</v>
@@ -11706,7 +11706,7 @@
         <v>115</v>
       </c>
       <c r="AA128">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB128">
         <v>8000</v>
@@ -11789,7 +11789,7 @@
         <v>115</v>
       </c>
       <c r="AA129">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB129">
         <v>8000</v>
@@ -11878,7 +11878,7 @@
         <v>115</v>
       </c>
       <c r="AA130">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB130">
         <v>8000</v>
@@ -15745,7 +15745,7 @@
         <v>115</v>
       </c>
       <c r="AA175">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB175">
         <v>8000</v>
@@ -15828,7 +15828,7 @@
         <v>115</v>
       </c>
       <c r="AA176">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB176">
         <v>8000</v>
@@ -15911,7 +15911,7 @@
         <v>115</v>
       </c>
       <c r="AA177">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB177">
         <v>8000</v>
@@ -15997,7 +15997,7 @@
         <v>115</v>
       </c>
       <c r="AA178">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB178">
         <v>8000</v>
@@ -16080,7 +16080,7 @@
         <v>115</v>
       </c>
       <c r="AA179">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB179">
         <v>8000</v>
@@ -16163,7 +16163,7 @@
         <v>115</v>
       </c>
       <c r="AA180">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB180">
         <v>8000</v>
@@ -16246,7 +16246,7 @@
         <v>115</v>
       </c>
       <c r="AA181">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB181">
         <v>8000</v>
@@ -16329,7 +16329,7 @@
         <v>115</v>
       </c>
       <c r="AA182">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB182">
         <v>8000</v>
@@ -16418,7 +16418,7 @@
         <v>115</v>
       </c>
       <c r="AA183">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB183">
         <v>8000</v>
@@ -16507,7 +16507,7 @@
         <v>115</v>
       </c>
       <c r="AA184">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB184">
         <v>8000</v>
@@ -16596,7 +16596,7 @@
         <v>115</v>
       </c>
       <c r="AA185">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB185">
         <v>8000</v>
@@ -16685,7 +16685,7 @@
         <v>115</v>
       </c>
       <c r="AA186">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB186">
         <v>8000</v>
@@ -16774,7 +16774,7 @@
         <v>115</v>
       </c>
       <c r="AA187">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB187">
         <v>8000</v>
@@ -16857,7 +16857,7 @@
         <v>115</v>
       </c>
       <c r="AA188">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB188">
         <v>8000</v>
@@ -16949,7 +16949,7 @@
         <v>115</v>
       </c>
       <c r="AA189">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB189">
         <v>8000</v>
@@ -17041,7 +17041,7 @@
         <v>115</v>
       </c>
       <c r="AA190">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB190">
         <v>8000</v>
@@ -17127,7 +17127,7 @@
         <v>115</v>
       </c>
       <c r="AA191">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB191">
         <v>8000</v>
@@ -17219,7 +17219,7 @@
         <v>115</v>
       </c>
       <c r="AA192">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB192">
         <v>8000</v>
@@ -17302,7 +17302,7 @@
         <v>115</v>
       </c>
       <c r="AA193">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB193">
         <v>8000</v>
@@ -17391,7 +17391,7 @@
         <v>115</v>
       </c>
       <c r="AA194">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB194">
         <v>8000</v>
@@ -17480,7 +17480,7 @@
         <v>115</v>
       </c>
       <c r="AA195">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB195">
         <v>8000</v>
@@ -17569,7 +17569,7 @@
         <v>115</v>
       </c>
       <c r="AA196">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB196">
         <v>8000</v>
@@ -17658,7 +17658,7 @@
         <v>115</v>
       </c>
       <c r="AA197">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB197">
         <v>8000</v>
@@ -17747,7 +17747,7 @@
         <v>115</v>
       </c>
       <c r="AA198">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB198">
         <v>8000</v>
@@ -17836,7 +17836,7 @@
         <v>115</v>
       </c>
       <c r="AA199">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB199">
         <v>8000</v>
@@ -17928,7 +17928,7 @@
         <v>115</v>
       </c>
       <c r="AA200">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB200">
         <v>8000</v>
@@ -18017,7 +18017,7 @@
         <v>115</v>
       </c>
       <c r="AA201">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB201">
         <v>8000</v>
@@ -18106,7 +18106,7 @@
         <v>115</v>
       </c>
       <c r="AA202">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB202">
         <v>8000</v>
@@ -18195,7 +18195,7 @@
         <v>115</v>
       </c>
       <c r="AA203">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB203">
         <v>8000</v>
@@ -18278,7 +18278,7 @@
         <v>115</v>
       </c>
       <c r="AA204">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB204">
         <v>8000</v>
@@ -18367,7 +18367,7 @@
         <v>115</v>
       </c>
       <c r="AA205">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB205">
         <v>8000</v>
@@ -18459,7 +18459,7 @@
         <v>115</v>
       </c>
       <c r="AA206">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AB206">
         <v>8000</v>
